--- a/run_log/run_results/train_history/training_history_run_4.xlsx
+++ b/run_log/run_results/train_history/training_history_run_4.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.03774458169937134</v>
+        <v>0.0891108363866806</v>
       </c>
       <c r="B2">
-        <v>0.994213342666626</v>
+        <v>0.9776841402053833</v>
       </c>
       <c r="C2">
-        <v>0.1131428554654121</v>
+        <v>0.2068810611963272</v>
       </c>
       <c r="D2">
-        <v>0.9498429894447327</v>
+        <v>0.9546296000480652</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.006737826392054558</v>
+        <v>0.02537666819989681</v>
       </c>
       <c r="B3">
-        <v>0.9983243346214294</v>
+        <v>0.9900674819946289</v>
       </c>
       <c r="C3">
-        <v>0.04314558580517769</v>
+        <v>0.1479210704565048</v>
       </c>
       <c r="D3">
-        <v>0.9868283271789551</v>
+        <v>0.949579119682312</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.002152618719264865</v>
+        <v>0.01584483310580254</v>
       </c>
       <c r="B4">
-        <v>0.9992626905441284</v>
+        <v>0.9947757720947266</v>
       </c>
       <c r="C4">
-        <v>0.01826130598783493</v>
+        <v>0.09521707147359848</v>
       </c>
       <c r="D4">
-        <v>0.9935449957847595</v>
+        <v>0.9622054100036621</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.001477926620282233</v>
+        <v>0.01257229223847389</v>
       </c>
       <c r="B5">
-        <v>0.9995307922363281</v>
+        <v>0.9955711960792542</v>
       </c>
       <c r="C5">
-        <v>0.0006513235857710242</v>
+        <v>0.354936808347702</v>
       </c>
       <c r="D5">
-        <v>0.9999127984046936</v>
+        <v>0.9484006762504578</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.0005833963514305651</v>
+        <v>0.01130461040884256</v>
       </c>
       <c r="B6">
-        <v>0.9998659491539001</v>
+        <v>0.995549738407135</v>
       </c>
       <c r="C6">
-        <v>0.0002977891417685896</v>
+        <v>0.1660708338022232</v>
       </c>
       <c r="D6">
-        <v>0.9999127984046936</v>
+        <v>0.9659090638160706</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.0005656537250615656</v>
+        <v>0.01128542423248291</v>
       </c>
       <c r="B7">
-        <v>0.9997766017913818</v>
+        <v>0.9952917695045471</v>
       </c>
       <c r="C7">
-        <v>0.01614791341125965</v>
+        <v>0.5267589688301086</v>
       </c>
       <c r="D7">
-        <v>0.9948534369468689</v>
+        <v>0.9485689997673035</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0007222840213216841</v>
+        <v>0.009384628385305405</v>
       </c>
       <c r="B8">
-        <v>0.999664843082428</v>
+        <v>0.9959797263145447</v>
       </c>
       <c r="C8">
-        <v>0.0004824768111575395</v>
+        <v>0.4426897168159485</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9493265748023987</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0001488171401433647</v>
+        <v>0.009427289478480816</v>
       </c>
       <c r="B9">
-        <v>0.9999106526374817</v>
+        <v>0.9953347444534302</v>
       </c>
       <c r="C9">
-        <v>7.909374835435301E-05</v>
+        <v>0.4434752464294434</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9488215446472168</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0002291878481628373</v>
+        <v>0.008229215629398823</v>
       </c>
       <c r="B10">
-        <v>0.9998883008956909</v>
+        <v>0.9954422116279602</v>
       </c>
       <c r="C10">
-        <v>0.0004238120745867491</v>
+        <v>0.3345008790493011</v>
       </c>
       <c r="D10">
-        <v>0.9999127984046936</v>
+        <v>0.9666666388511658</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.000433362292824313</v>
+        <v>0.007301429286599159</v>
       </c>
       <c r="B11">
-        <v>0.9998883008956909</v>
+        <v>0.9957432150840759</v>
       </c>
       <c r="C11">
-        <v>5.116130341775715E-05</v>
+        <v>0.3620936274528503</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.957239031791687</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0001453561271773651</v>
+        <v>0.007760378532111645</v>
       </c>
       <c r="B12">
-        <v>0.9999776482582092</v>
+        <v>0.9955927133560181</v>
       </c>
       <c r="C12">
-        <v>0.01413049083203077</v>
+        <v>0.1539175063371658</v>
       </c>
       <c r="D12">
-        <v>0.9954640865325928</v>
+        <v>0.9722222089767456</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0006506813806481659</v>
+        <v>0.007689092773944139</v>
       </c>
       <c r="B13">
-        <v>0.9997766017913818</v>
+        <v>0.995549738407135</v>
       </c>
       <c r="C13">
-        <v>0.0006301850080490112</v>
+        <v>0.2370198369026184</v>
       </c>
       <c r="D13">
-        <v>0.9999127984046936</v>
+        <v>0.9748316407203674</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0003523794002830982</v>
+        <v>0.007159396074712276</v>
       </c>
       <c r="B14">
-        <v>0.9998883008956909</v>
+        <v>0.995614230632782</v>
       </c>
       <c r="C14">
-        <v>0.003770418697968125</v>
+        <v>0.2719425559043884</v>
       </c>
       <c r="D14">
-        <v>0.9985170960426331</v>
+        <v>0.9626262784004211</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.000305542693240568</v>
+        <v>0.008134615607559681</v>
       </c>
       <c r="B15">
-        <v>0.9999106526374817</v>
+        <v>0.995721697807312</v>
       </c>
       <c r="C15">
-        <v>0.003716821083799005</v>
+        <v>0.246554434299469</v>
       </c>
       <c r="D15">
-        <v>0.9980809688568115</v>
+        <v>0.9588384032249451</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.000517605512868613</v>
+        <v>0.006642026361078024</v>
       </c>
       <c r="B16">
-        <v>0.9998212456703186</v>
+        <v>0.9959582090377808</v>
       </c>
       <c r="C16">
-        <v>2.605438203318045E-05</v>
+        <v>0.249793753027916</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.959764301776886</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0001152259428636171</v>
+        <v>0.006941849365830421</v>
       </c>
       <c r="B17">
-        <v>0.9999776482582092</v>
+        <v>0.9955927133560181</v>
       </c>
       <c r="C17">
-        <v>0.0001324644254054874</v>
+        <v>0.3751275241374969</v>
       </c>
       <c r="D17">
-        <v>0.9999127984046936</v>
+        <v>0.9514309763908386</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>4.604408968589269E-05</v>
+        <v>0.007286000531166792</v>
       </c>
       <c r="B18">
-        <v>0.9999776482582092</v>
+        <v>0.9960871934890747</v>
       </c>
       <c r="C18">
-        <v>7.311708031920716E-05</v>
+        <v>0.1239943578839302</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9731481671333313</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0007805605418980122</v>
+        <v>0.00691929180175066</v>
       </c>
       <c r="B19">
-        <v>0.9998435974121094</v>
+        <v>0.9960011839866638</v>
       </c>
       <c r="C19">
-        <v>0.0002207544748671353</v>
+        <v>0.1467976719141006</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9691919088363647</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0001753559481585398</v>
+        <v>0.007032891735434532</v>
       </c>
       <c r="B20">
-        <v>0.9999329447746277</v>
+        <v>0.9960011839866638</v>
       </c>
       <c r="C20">
-        <v>0.00281644519418478</v>
+        <v>0.1006443798542023</v>
       </c>
       <c r="D20">
-        <v>0.9982554316520691</v>
+        <v>0.9794612526893616</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>2.692426460271236E-05</v>
+        <v>0.007932950742542744</v>
       </c>
       <c r="B21">
-        <v>0.9999776482582092</v>
+        <v>0.9955067038536072</v>
       </c>
       <c r="C21">
-        <v>8.648099537822418E-06</v>
+        <v>0.6322796940803528</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9505050778388977</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0001553789770696312</v>
+        <v>0.006929574068635702</v>
       </c>
       <c r="B22">
-        <v>0.9999776482582092</v>
+        <v>0.995721697807312</v>
       </c>
       <c r="C22">
-        <v>0.001259741256944835</v>
+        <v>0.3654822707176208</v>
       </c>
       <c r="D22">
-        <v>0.9996510744094849</v>
+        <v>0.9677609205245972</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0004297053092159331</v>
+        <v>0.006169342901557684</v>
       </c>
       <c r="B23">
-        <v>0.9998883008956909</v>
+        <v>0.9959366917610168</v>
       </c>
       <c r="C23">
-        <v>0.0001887590769911185</v>
+        <v>0.3533851802349091</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9682660102844238</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0006749355816282332</v>
+        <v>0.006651843432337046</v>
       </c>
       <c r="B24">
-        <v>0.9998212456703186</v>
+        <v>0.9960011839866638</v>
       </c>
       <c r="C24">
-        <v>0.00910794734954834</v>
+        <v>0.4587613940238953</v>
       </c>
       <c r="D24">
-        <v>0.9967725276947021</v>
+        <v>0.9558922648429871</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0002727395039983094</v>
+        <v>0.006962025072425604</v>
       </c>
       <c r="B25">
-        <v>0.9999106526374817</v>
+        <v>0.995485246181488</v>
       </c>
       <c r="C25">
-        <v>0.003734103869646788</v>
+        <v>0.824250340461731</v>
       </c>
       <c r="D25">
-        <v>0.9978192448616028</v>
+        <v>0.949158251285553</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0001668199402047321</v>
+        <v>0.006739129312336445</v>
       </c>
       <c r="B26">
-        <v>0.9999552965164185</v>
+        <v>0.9962376952171326</v>
       </c>
       <c r="C26">
-        <v>0.001648302306421101</v>
+        <v>0.3952098786830902</v>
       </c>
       <c r="D26">
-        <v>0.998778760433197</v>
+        <v>0.9506734013557434</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>8.722180609765928E-06</v>
+        <v>0.007398216985166073</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.9952272176742554</v>
       </c>
       <c r="C27">
-        <v>0.0005200034938752651</v>
+        <v>0.3174797594547272</v>
       </c>
       <c r="D27">
-        <v>0.9999127984046936</v>
+        <v>0.9651514887809753</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>3.468550175966811E-06</v>
+        <v>0.006100672762840986</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9959797263145447</v>
       </c>
       <c r="C28">
-        <v>0.003294622991234064</v>
+        <v>0.2634152472019196</v>
       </c>
       <c r="D28">
-        <v>0.9982554316520691</v>
+        <v>0.9724747538566589</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>8.044874266488478E-05</v>
+        <v>0.006198249757289886</v>
       </c>
       <c r="B29">
-        <v>0.9999776482582092</v>
+        <v>0.9965816736221313</v>
       </c>
       <c r="C29">
-        <v>0.001563387108035386</v>
+        <v>0.286062479019165</v>
       </c>
       <c r="D29">
-        <v>0.9989532232284546</v>
+        <v>0.9700336456298828</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0001643463037908077</v>
+        <v>0.007028468418866396</v>
       </c>
       <c r="B30">
-        <v>0.9999776482582092</v>
+        <v>0.9960011839866638</v>
       </c>
       <c r="C30">
-        <v>0.01877837255597115</v>
+        <v>0.6281360387802124</v>
       </c>
       <c r="D30">
-        <v>0.995202362537384</v>
+        <v>0.949999988079071</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0005542099825106561</v>
+        <v>0.00585471885278821</v>
       </c>
       <c r="B31">
-        <v>0.9998883008956909</v>
+        <v>0.9963666796684265</v>
       </c>
       <c r="C31">
-        <v>1.260947738046525E-05</v>
+        <v>0.6082448959350586</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.9496632814407349</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0001421224587829784</v>
+        <v>0.007108170073479414</v>
       </c>
       <c r="B32">
-        <v>0.9999329447746277</v>
+        <v>0.995850682258606</v>
       </c>
       <c r="C32">
-        <v>5.062642594566569E-05</v>
+        <v>0.6204532980918884</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.9520202279090881</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0006485007470473647</v>
+        <v>0.005757453851401806</v>
       </c>
       <c r="B33">
-        <v>0.9997766017913818</v>
+        <v>0.9963021874427795</v>
       </c>
       <c r="C33">
-        <v>4.580466702464037E-05</v>
+        <v>0.8222138285636902</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.9494949579238892</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0001713779929559678</v>
+        <v>0.006630108691751957</v>
       </c>
       <c r="B34">
-        <v>0.9999776482582092</v>
+        <v>0.9958077073097229</v>
       </c>
       <c r="C34">
-        <v>2.154435151169309E-06</v>
+        <v>0.6453776955604553</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.949158251285553</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>3.917231424566125E-06</v>
+        <v>0.005636299028992653</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9960656762123108</v>
       </c>
       <c r="C35">
-        <v>1.028403403324774E-06</v>
+        <v>0.404699832201004</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9655724167823792</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>1.582065669936128E-05</v>
+        <v>0.006809841375797987</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.995721697807312</v>
       </c>
       <c r="C36">
-        <v>1.377816374770191E-06</v>
+        <v>0.5373790264129639</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9499158263206482</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.001380716683343053</v>
+        <v>0.006198599468916655</v>
       </c>
       <c r="B37">
-        <v>0.9998435974121094</v>
+        <v>0.995850682258606</v>
       </c>
       <c r="C37">
-        <v>8.223812073993031E-06</v>
+        <v>0.4092240035533905</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9635521769523621</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.000138712945044972</v>
+        <v>0.006725901737809181</v>
       </c>
       <c r="B38">
-        <v>0.9999776482582092</v>
+        <v>0.9959797263145447</v>
       </c>
       <c r="C38">
-        <v>2.735330895120569E-07</v>
+        <v>0.512235701084137</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9558922648429871</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>1.336022614850663E-05</v>
+        <v>0.006455939263105392</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9959152340888977</v>
       </c>
       <c r="C39">
-        <v>2.509313503651356E-07</v>
+        <v>0.6489686965942383</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9515151381492615</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>1.925324568219366E-06</v>
+        <v>0.006081179715692997</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.995850682258606</v>
       </c>
       <c r="C40">
-        <v>1.316737154866132E-07</v>
+        <v>0.4167316854000092</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9673400521278381</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>6.89285343469237E-06</v>
+        <v>0.006706756539642811</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9961516857147217</v>
       </c>
       <c r="C41">
-        <v>1.762542289895919E-08</v>
+        <v>0.5394155383110046</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.949158251285553</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>6.180591753945919E-07</v>
+        <v>0.007295573595911264</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9952057600021362</v>
       </c>
       <c r="C42">
-        <v>8.214841251685812E-09</v>
+        <v>1.406392216682434</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9515992999076843</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0004826502699870616</v>
+        <v>0.006539024412631989</v>
       </c>
       <c r="B43">
-        <v>0.9998659491539001</v>
+        <v>0.995850682258606</v>
       </c>
       <c r="C43">
-        <v>0.00696909474208951</v>
+        <v>1.176237940788269</v>
       </c>
       <c r="D43">
-        <v>0.9972958564758301</v>
+        <v>0.95387202501297</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>3.476610072539188E-05</v>
+        <v>0.005816465243697166</v>
       </c>
       <c r="B44">
-        <v>0.9999776482582092</v>
+        <v>0.9964096546173096</v>
       </c>
       <c r="C44">
-        <v>0.001013012602925301</v>
+        <v>1.369919300079346</v>
       </c>
       <c r="D44">
-        <v>0.9998255372047424</v>
+        <v>0.9505892395973206</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>2.333659722353332E-05</v>
+        <v>0.006660385057330132</v>
       </c>
       <c r="B45">
-        <v>0.9999776482582092</v>
+        <v>0.995657205581665</v>
       </c>
       <c r="C45">
-        <v>2.543457958381623E-05</v>
+        <v>1.361505031585693</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9498316645622253</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>1.532677060822607E-07</v>
+        <v>0.007063128054141998</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.995721697807312</v>
       </c>
       <c r="C46">
-        <v>2.498132016626187E-05</v>
+        <v>1.026727914810181</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9621211886405945</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>2.322525602949099E-07</v>
+        <v>0.006223268806934357</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9955711960792542</v>
       </c>
       <c r="C47">
-        <v>2.384142680966761E-05</v>
+        <v>1.167361378669739</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9585016965866089</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>6.39001314084453E-07</v>
+        <v>0.006413535214960575</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.9960871934890747</v>
       </c>
       <c r="C48">
-        <v>5.296101335261483E-06</v>
+        <v>1.173216342926025</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9577441215515137</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>4.514779357123189E-05</v>
+        <v>0.00701660243794322</v>
       </c>
       <c r="B49">
-        <v>0.9999776482582092</v>
+        <v>0.9955067038536072</v>
       </c>
       <c r="C49">
-        <v>0.009988096542656422</v>
+        <v>1.109143972396851</v>
       </c>
       <c r="D49">
-        <v>0.9973831176757812</v>
+        <v>0.9526935815811157</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>1.753232027112972E-06</v>
+        <v>0.007396447006613016</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.995549738407135</v>
       </c>
       <c r="C50">
-        <v>0.01178377028554678</v>
+        <v>1.119286417961121</v>
       </c>
       <c r="D50">
-        <v>0.9969469904899597</v>
+        <v>0.9515151381492615</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0005534085212275386</v>
+        <v>0.006853641476482153</v>
       </c>
       <c r="B51">
-        <v>0.9999329447746277</v>
+        <v>0.9960656762123108</v>
       </c>
       <c r="C51">
-        <v>0.004554298706352711</v>
+        <v>0.9749740362167358</v>
       </c>
       <c r="D51">
-        <v>0.9975575804710388</v>
+        <v>0.9508417248725891</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_4.xlsx
+++ b/run_log/run_results/train_history/training_history_run_4.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.0891108363866806</v>
+        <v>0.06542561203241348</v>
       </c>
       <c r="B2">
-        <v>0.9776841402053833</v>
+        <v>0.9830480217933655</v>
       </c>
       <c r="C2">
-        <v>0.2068810611963272</v>
+        <v>0.01671357825398445</v>
       </c>
       <c r="D2">
-        <v>0.9546296000480652</v>
+        <v>0.9978290796279907</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.02537666819989681</v>
+        <v>0.01293755136430264</v>
       </c>
       <c r="B3">
-        <v>0.9900674819946289</v>
+        <v>0.9980044364929199</v>
       </c>
       <c r="C3">
-        <v>0.1479210704565048</v>
+        <v>0.01115778274834156</v>
       </c>
       <c r="D3">
-        <v>0.949579119682312</v>
+        <v>0.998171865940094</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.01584483310580254</v>
+        <v>0.007950814440846443</v>
       </c>
       <c r="B4">
-        <v>0.9947757720947266</v>
+        <v>0.9982985258102417</v>
       </c>
       <c r="C4">
-        <v>0.09521707147359848</v>
+        <v>0.004611999727785587</v>
       </c>
       <c r="D4">
-        <v>0.9622054100036621</v>
+        <v>0.9985146522521973</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.01257229223847389</v>
+        <v>0.004024166148155928</v>
       </c>
       <c r="B5">
-        <v>0.9955711960792542</v>
+        <v>0.9990336894989014</v>
       </c>
       <c r="C5">
-        <v>0.354936808347702</v>
+        <v>0.0008017338113859296</v>
       </c>
       <c r="D5">
-        <v>0.9484006762504578</v>
+        <v>0.9997714757919312</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.01130461040884256</v>
+        <v>0.002397024305537343</v>
       </c>
       <c r="B6">
-        <v>0.995549738407135</v>
+        <v>0.9995168447494507</v>
       </c>
       <c r="C6">
-        <v>0.1660708338022232</v>
+        <v>0.0003045226621907204</v>
       </c>
       <c r="D6">
-        <v>0.9659090638160706</v>
+        <v>0.9997714757919312</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.01128542423248291</v>
+        <v>0.001792647177353501</v>
       </c>
       <c r="B7">
-        <v>0.9952917695045471</v>
+        <v>0.9995588660240173</v>
       </c>
       <c r="C7">
-        <v>0.5267589688301086</v>
+        <v>0.0001361156755592674</v>
       </c>
       <c r="D7">
-        <v>0.9485689997673035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.009384628385305405</v>
+        <v>0.001756630605086684</v>
       </c>
       <c r="B8">
-        <v>0.9959797263145447</v>
+        <v>0.9995168447494507</v>
       </c>
       <c r="C8">
-        <v>0.4426897168159485</v>
+        <v>0.0002704444632399827</v>
       </c>
       <c r="D8">
-        <v>0.9493265748023987</v>
+        <v>0.9997714757919312</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.009427289478480816</v>
+        <v>0.0009343469864688814</v>
       </c>
       <c r="B9">
-        <v>0.9953347444534302</v>
+        <v>0.9996638894081116</v>
       </c>
       <c r="C9">
-        <v>0.4434752464294434</v>
+        <v>0.0001302259333897382</v>
       </c>
       <c r="D9">
-        <v>0.9488215446472168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.008229215629398823</v>
+        <v>0.0009057201677933335</v>
       </c>
       <c r="B10">
-        <v>0.9954422116279602</v>
+        <v>0.9997899532318115</v>
       </c>
       <c r="C10">
-        <v>0.3345008790493011</v>
+        <v>0.0002023596753133461</v>
       </c>
       <c r="D10">
-        <v>0.9666666388511658</v>
+        <v>0.9998857378959656</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.007301429286599159</v>
+        <v>0.0009618830517865717</v>
       </c>
       <c r="B11">
-        <v>0.9957432150840759</v>
+        <v>0.9997899532318115</v>
       </c>
       <c r="C11">
-        <v>0.3620936274528503</v>
+        <v>0.0004971797461621463</v>
       </c>
       <c r="D11">
-        <v>0.957239031791687</v>
+        <v>0.9997714757919312</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.007760378532111645</v>
+        <v>0.0007512320298701525</v>
       </c>
       <c r="B12">
-        <v>0.9955927133560181</v>
+        <v>0.9998739361763</v>
       </c>
       <c r="C12">
-        <v>0.1539175063371658</v>
+        <v>6.570533514604904E-06</v>
       </c>
       <c r="D12">
-        <v>0.9722222089767456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.007689092773944139</v>
+        <v>0.0007512954180128872</v>
       </c>
       <c r="B13">
-        <v>0.995549738407135</v>
+        <v>0.9997479319572449</v>
       </c>
       <c r="C13">
-        <v>0.2370198369026184</v>
+        <v>1.117103238357231E-05</v>
       </c>
       <c r="D13">
-        <v>0.9748316407203674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.007159396074712276</v>
+        <v>0.0006902640452608466</v>
       </c>
       <c r="B14">
-        <v>0.995614230632782</v>
+        <v>0.9997899532318115</v>
       </c>
       <c r="C14">
-        <v>0.2719425559043884</v>
+        <v>0.001897189067676663</v>
       </c>
       <c r="D14">
-        <v>0.9626262784004211</v>
+        <v>0.9997714757919312</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.008134615607559681</v>
+        <v>0.0007668875623494387</v>
       </c>
       <c r="B15">
-        <v>0.995721697807312</v>
+        <v>0.9997899532318115</v>
       </c>
       <c r="C15">
-        <v>0.246554434299469</v>
+        <v>8.832603634800762E-05</v>
       </c>
       <c r="D15">
-        <v>0.9588384032249451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.006642026361078024</v>
+        <v>0.0002312483557034284</v>
       </c>
       <c r="B16">
-        <v>0.9959582090377808</v>
+        <v>0.9999790191650391</v>
       </c>
       <c r="C16">
-        <v>0.249793753027916</v>
+        <v>1.109886170524987E-06</v>
       </c>
       <c r="D16">
-        <v>0.959764301776886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.006941849365830421</v>
+        <v>0.0006202617078088224</v>
       </c>
       <c r="B17">
-        <v>0.9955927133560181</v>
+        <v>0.9998109340667725</v>
       </c>
       <c r="C17">
-        <v>0.3751275241374969</v>
+        <v>0.0009095710120163858</v>
       </c>
       <c r="D17">
-        <v>0.9514309763908386</v>
+        <v>0.9997714757919312</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.007286000531166792</v>
+        <v>0.0006307217408902943</v>
       </c>
       <c r="B18">
-        <v>0.9960871934890747</v>
+        <v>0.9997899532318115</v>
       </c>
       <c r="C18">
-        <v>0.1239943578839302</v>
+        <v>2.869058732812846E-07</v>
       </c>
       <c r="D18">
-        <v>0.9731481671333313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.00691929180175066</v>
+        <v>0.0006919919396750629</v>
       </c>
       <c r="B19">
-        <v>0.9960011839866638</v>
+        <v>0.9998739361763</v>
       </c>
       <c r="C19">
-        <v>0.1467976719141006</v>
+        <v>2.059427970380057E-07</v>
       </c>
       <c r="D19">
-        <v>0.9691919088363647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.007032891735434532</v>
+        <v>0.0002790758444461972</v>
       </c>
       <c r="B20">
-        <v>0.9960011839866638</v>
+        <v>0.9999369978904724</v>
       </c>
       <c r="C20">
-        <v>0.1006443798542023</v>
+        <v>2.553079241351952E-07</v>
       </c>
       <c r="D20">
-        <v>0.9794612526893616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.007932950742542744</v>
+        <v>0.0001067164048436098</v>
       </c>
       <c r="B21">
-        <v>0.9955067038536072</v>
+        <v>0.9999579787254333</v>
       </c>
       <c r="C21">
-        <v>0.6322796940803528</v>
+        <v>2.508282079816126E-07</v>
       </c>
       <c r="D21">
-        <v>0.9505050778388977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.006929574068635702</v>
+        <v>0.0001930282305693254</v>
       </c>
       <c r="B22">
-        <v>0.995721697807312</v>
+        <v>0.9999369978904724</v>
       </c>
       <c r="C22">
-        <v>0.3654822707176208</v>
+        <v>4.839784537580272E-07</v>
       </c>
       <c r="D22">
-        <v>0.9677609205245972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.006169342901557684</v>
+        <v>0.0002178981230827048</v>
       </c>
       <c r="B23">
-        <v>0.9959366917610168</v>
+        <v>0.9999790191650391</v>
       </c>
       <c r="C23">
-        <v>0.3533851802349091</v>
+        <v>3.022280452569248E-07</v>
       </c>
       <c r="D23">
-        <v>0.9682660102844238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.006651843432337046</v>
+        <v>0.0007087429403327405</v>
       </c>
       <c r="B24">
-        <v>0.9960011839866638</v>
+        <v>0.9998319745063782</v>
       </c>
       <c r="C24">
-        <v>0.4587613940238953</v>
+        <v>9.351421795145143E-06</v>
       </c>
       <c r="D24">
-        <v>0.9558922648429871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.006962025072425604</v>
+        <v>0.0005628178478218615</v>
       </c>
       <c r="B25">
-        <v>0.995485246181488</v>
+        <v>0.9998739361763</v>
       </c>
       <c r="C25">
-        <v>0.824250340461731</v>
+        <v>2.728043284605519E-07</v>
       </c>
       <c r="D25">
-        <v>0.949158251285553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.006739129312336445</v>
+        <v>6.626170215895399E-05</v>
       </c>
       <c r="B26">
-        <v>0.9962376952171326</v>
+        <v>0.9999790191650391</v>
       </c>
       <c r="C26">
-        <v>0.3952098786830902</v>
+        <v>3.142379227938363E-07</v>
       </c>
       <c r="D26">
-        <v>0.9506734013557434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.007398216985166073</v>
+        <v>0.0007931875297799706</v>
       </c>
       <c r="B27">
-        <v>0.9952272176742554</v>
+        <v>0.9998319745063782</v>
       </c>
       <c r="C27">
-        <v>0.3174797594547272</v>
+        <v>1.028002202474454E-06</v>
       </c>
       <c r="D27">
-        <v>0.9651514887809753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.006100672762840986</v>
+        <v>0.0004571772296912968</v>
       </c>
       <c r="B28">
-        <v>0.9959797263145447</v>
+        <v>0.9998949766159058</v>
       </c>
       <c r="C28">
-        <v>0.2634152472019196</v>
+        <v>6.663160689868164E-08</v>
       </c>
       <c r="D28">
-        <v>0.9724747538566589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.006198249757289886</v>
+        <v>3.708153963088989E-05</v>
       </c>
       <c r="B29">
-        <v>0.9965816736221313</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0.286062479019165</v>
+        <v>4.17140171293795E-08</v>
       </c>
       <c r="D29">
-        <v>0.9700336456298828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.007028468418866396</v>
+        <v>6.491023668786511E-05</v>
       </c>
       <c r="B30">
-        <v>0.9960011839866638</v>
+        <v>0.9999790191650391</v>
       </c>
       <c r="C30">
-        <v>0.6281360387802124</v>
+        <v>1.487315604009609E-08</v>
       </c>
       <c r="D30">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.00585471885278821</v>
+        <v>6.896041304571554E-05</v>
       </c>
       <c r="B31">
-        <v>0.9963666796684265</v>
+        <v>0.9999579787254333</v>
       </c>
       <c r="C31">
-        <v>0.6082448959350586</v>
+        <v>1.465521481947007E-08</v>
       </c>
       <c r="D31">
-        <v>0.9496632814407349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.007108170073479414</v>
+        <v>0.000145114230690524</v>
       </c>
       <c r="B32">
-        <v>0.995850682258606</v>
+        <v>0.9999579787254333</v>
       </c>
       <c r="C32">
-        <v>0.6204532980918884</v>
+        <v>1.612266800066209E-07</v>
       </c>
       <c r="D32">
-        <v>0.9520202279090881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.005757453851401806</v>
+        <v>0.0002322284271940589</v>
       </c>
       <c r="B33">
-        <v>0.9963021874427795</v>
+        <v>0.9999579787254333</v>
       </c>
       <c r="C33">
-        <v>0.8222138285636902</v>
+        <v>1.423717037596361E-07</v>
       </c>
       <c r="D33">
-        <v>0.9494949579238892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.006630108691751957</v>
+        <v>0.00137389381416142</v>
       </c>
       <c r="B34">
-        <v>0.9958077073097229</v>
+        <v>0.9998949766159058</v>
       </c>
       <c r="C34">
-        <v>0.6453776955604553</v>
+        <v>1.084200196288521E-08</v>
       </c>
       <c r="D34">
-        <v>0.949158251285553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.005636299028992653</v>
+        <v>8.393834286835045E-05</v>
       </c>
       <c r="B35">
-        <v>0.9960656762123108</v>
+        <v>0.9999790191650391</v>
       </c>
       <c r="C35">
-        <v>0.404699832201004</v>
+        <v>1.825978017677699E-07</v>
       </c>
       <c r="D35">
-        <v>0.9655724167823792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.006809841375797987</v>
+        <v>0.001134931342676282</v>
       </c>
       <c r="B36">
-        <v>0.995721697807312</v>
+        <v>0.9997899532318115</v>
       </c>
       <c r="C36">
-        <v>0.5373790264129639</v>
+        <v>8.730823175540081E-09</v>
       </c>
       <c r="D36">
-        <v>0.9499158263206482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.006198599468916655</v>
+        <v>0.0001145929272752255</v>
       </c>
       <c r="B37">
-        <v>0.995850682258606</v>
+        <v>0.9999579787254333</v>
       </c>
       <c r="C37">
-        <v>0.4092240035533905</v>
+        <v>3.73208441928341E-09</v>
       </c>
       <c r="D37">
-        <v>0.9635521769523621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.006725901737809181</v>
+        <v>0.0001298790302826092</v>
       </c>
       <c r="B38">
-        <v>0.9959797263145447</v>
+        <v>0.9999369978904724</v>
       </c>
       <c r="C38">
-        <v>0.512235701084137</v>
+        <v>4.739968861855459E-09</v>
       </c>
       <c r="D38">
-        <v>0.9558922648429871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.006455939263105392</v>
+        <v>0.0001544534752611071</v>
       </c>
       <c r="B39">
-        <v>0.9959152340888977</v>
+        <v>0.9999579787254333</v>
       </c>
       <c r="C39">
-        <v>0.6489686965942383</v>
+        <v>2.77862644004756E-09</v>
       </c>
       <c r="D39">
-        <v>0.9515151381492615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.006081179715692997</v>
+        <v>0.000539265398401767</v>
       </c>
       <c r="B40">
-        <v>0.995850682258606</v>
+        <v>0.9998949766159058</v>
       </c>
       <c r="C40">
-        <v>0.4167316854000092</v>
+        <v>9.262138278565146E-10</v>
       </c>
       <c r="D40">
-        <v>0.9673400521278381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.006706756539642811</v>
+        <v>2.763029624475166E-05</v>
       </c>
       <c r="B41">
-        <v>0.9961516857147217</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.5394155383110046</v>
+        <v>8.717304100791523E-10</v>
       </c>
       <c r="D41">
-        <v>0.949158251285553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.007295573595911264</v>
+        <v>0.0009748298907652497</v>
       </c>
       <c r="B42">
-        <v>0.9952057600021362</v>
+        <v>0.9998319745063782</v>
       </c>
       <c r="C42">
-        <v>1.406392216682434</v>
+        <v>1.13039263283099E-07</v>
       </c>
       <c r="D42">
-        <v>0.9515992999076843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.006539024412631989</v>
+        <v>0.0005354515742510557</v>
       </c>
       <c r="B43">
-        <v>0.995850682258606</v>
+        <v>0.9999369978904724</v>
       </c>
       <c r="C43">
-        <v>1.176237940788269</v>
+        <v>3.743826226809688E-08</v>
       </c>
       <c r="D43">
-        <v>0.95387202501297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.005816465243697166</v>
+        <v>1.379508375976002E-05</v>
       </c>
       <c r="B44">
-        <v>0.9964096546173096</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1.369919300079346</v>
+        <v>2.098792428739671E-08</v>
       </c>
       <c r="D44">
-        <v>0.9505892395973206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.006660385057330132</v>
+        <v>0.0006129592075012624</v>
       </c>
       <c r="B45">
-        <v>0.995657205581665</v>
+        <v>0.9999790191650391</v>
       </c>
       <c r="C45">
-        <v>1.361505031585693</v>
+        <v>1.092359980248148E-08</v>
       </c>
       <c r="D45">
-        <v>0.9498316645622253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.007063128054141998</v>
+        <v>0.0005852378089912236</v>
       </c>
       <c r="B46">
-        <v>0.995721697807312</v>
+        <v>0.9998739361763</v>
       </c>
       <c r="C46">
-        <v>1.026727914810181</v>
+        <v>3.082272215237936E-08</v>
       </c>
       <c r="D46">
-        <v>0.9621211886405945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.006223268806934357</v>
+        <v>0.001047506695613265</v>
       </c>
       <c r="B47">
-        <v>0.9955711960792542</v>
+        <v>0.9998529553413391</v>
       </c>
       <c r="C47">
-        <v>1.167361378669739</v>
+        <v>2.883235517003868E-08</v>
       </c>
       <c r="D47">
-        <v>0.9585016965866089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.006413535214960575</v>
+        <v>0.0002554163802415133</v>
       </c>
       <c r="B48">
-        <v>0.9960871934890747</v>
+        <v>0.9999579787254333</v>
       </c>
       <c r="C48">
-        <v>1.173216342926025</v>
+        <v>2.370014628993999E-09</v>
       </c>
       <c r="D48">
-        <v>0.9577441215515137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.00701660243794322</v>
+        <v>9.21614991966635E-05</v>
       </c>
       <c r="B49">
-        <v>0.9955067038536072</v>
+        <v>0.9999369978904724</v>
       </c>
       <c r="C49">
-        <v>1.109143972396851</v>
+        <v>1.253113279808815E-09</v>
       </c>
       <c r="D49">
-        <v>0.9526935815811157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.007396447006613016</v>
+        <v>3.58757347385108E-06</v>
       </c>
       <c r="B50">
-        <v>0.995549738407135</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>1.119286417961121</v>
+        <v>9.262143829680269E-10</v>
       </c>
       <c r="D50">
-        <v>0.9515151381492615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.006853641476482153</v>
+        <v>0.000284298905171454</v>
       </c>
       <c r="B51">
-        <v>0.9960656762123108</v>
+        <v>0.9999159574508667</v>
       </c>
       <c r="C51">
-        <v>0.9749740362167358</v>
+        <v>3.358756117677331E-08</v>
       </c>
       <c r="D51">
-        <v>0.9508417248725891</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_4.xlsx
+++ b/run_log/run_results/train_history/training_history_run_4.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.06542561203241348</v>
+        <v>0.05803533643484116</v>
       </c>
       <c r="B2">
-        <v>0.9830480217933655</v>
+        <v>0.9879117012023926</v>
       </c>
       <c r="C2">
-        <v>0.01671357825398445</v>
+        <v>0.1935855448246002</v>
       </c>
       <c r="D2">
-        <v>0.9978290796279907</v>
+        <v>0.9605362415313721</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01293755136430264</v>
+        <v>0.009382420219480991</v>
       </c>
       <c r="B3">
-        <v>0.9980044364929199</v>
+        <v>0.9983578324317932</v>
       </c>
       <c r="C3">
-        <v>0.01115778274834156</v>
+        <v>0.1803392469882965</v>
       </c>
       <c r="D3">
-        <v>0.998171865940094</v>
+        <v>0.961767315864563</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.007950814440846443</v>
+        <v>0.004995067603886127</v>
       </c>
       <c r="B4">
-        <v>0.9982985258102417</v>
+        <v>0.998677134513855</v>
       </c>
       <c r="C4">
-        <v>0.004611999727785587</v>
+        <v>0.1929948031902313</v>
       </c>
       <c r="D4">
-        <v>0.9985146522521973</v>
+        <v>0.9580056071281433</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.004024166148155928</v>
+        <v>0.002701822202652693</v>
       </c>
       <c r="B5">
-        <v>0.9990336894989014</v>
+        <v>0.9993613958358765</v>
       </c>
       <c r="C5">
-        <v>0.0008017338113859296</v>
+        <v>0.1193691864609718</v>
       </c>
       <c r="D5">
-        <v>0.9997714757919312</v>
+        <v>0.9706586599349976</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.002397024305537343</v>
+        <v>0.001904790173284709</v>
       </c>
       <c r="B6">
-        <v>0.9995168447494507</v>
+        <v>0.9994525909423828</v>
       </c>
       <c r="C6">
-        <v>0.0003045226621907204</v>
+        <v>0.2169000804424286</v>
       </c>
       <c r="D6">
-        <v>0.9997714757919312</v>
+        <v>0.9582107663154602</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001792647177353501</v>
+        <v>0.001922387978993356</v>
       </c>
       <c r="B7">
-        <v>0.9995588660240173</v>
+        <v>0.9995894432067871</v>
       </c>
       <c r="C7">
-        <v>0.0001361156755592674</v>
+        <v>0.1365380734205246</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9636139869689941</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001756630605086684</v>
+        <v>0.00130282889585942</v>
       </c>
       <c r="B8">
-        <v>0.9995168447494507</v>
+        <v>0.9997262954711914</v>
       </c>
       <c r="C8">
-        <v>0.0002704444632399827</v>
+        <v>0.173736035823822</v>
       </c>
       <c r="D8">
-        <v>0.9997714757919312</v>
+        <v>0.9697011113166809</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0009343469864688814</v>
+        <v>0.00154472969006747</v>
       </c>
       <c r="B9">
-        <v>0.9996638894081116</v>
+        <v>0.9996122717857361</v>
       </c>
       <c r="C9">
-        <v>0.0001302259333897382</v>
+        <v>0.1994035094976425</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9598522782325745</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0009057201677933335</v>
+        <v>0.001021661213599145</v>
       </c>
       <c r="B10">
-        <v>0.9997899532318115</v>
+        <v>0.9997262954711914</v>
       </c>
       <c r="C10">
-        <v>0.0002023596753133461</v>
+        <v>0.1475272923707962</v>
       </c>
       <c r="D10">
-        <v>0.9998857378959656</v>
+        <v>0.9763354063034058</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0009618830517865717</v>
+        <v>0.0005883114645257592</v>
       </c>
       <c r="B11">
-        <v>0.9997899532318115</v>
+        <v>0.9998631477355957</v>
       </c>
       <c r="C11">
-        <v>0.0004971797461621463</v>
+        <v>0.2034564912319183</v>
       </c>
       <c r="D11">
-        <v>0.9997714757919312</v>
+        <v>0.969222366809845</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0007512320298701525</v>
+        <v>0.001231090049259365</v>
       </c>
       <c r="B12">
-        <v>0.9998739361763</v>
+        <v>0.9997491240501404</v>
       </c>
       <c r="C12">
-        <v>6.570533514604904E-06</v>
+        <v>0.1697392016649246</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9756514430046082</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0007512954180128872</v>
+        <v>0.0009885343024507165</v>
       </c>
       <c r="B13">
-        <v>0.9997479319572449</v>
+        <v>0.9997262954711914</v>
       </c>
       <c r="C13">
-        <v>1.117103238357231E-05</v>
+        <v>0.1065578684210777</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9757198691368103</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0006902640452608466</v>
+        <v>0.0003313153283670545</v>
       </c>
       <c r="B14">
-        <v>0.9997899532318115</v>
+        <v>0.9999087452888489</v>
       </c>
       <c r="C14">
-        <v>0.001897189067676663</v>
+        <v>0.140577420592308</v>
       </c>
       <c r="D14">
-        <v>0.9997714757919312</v>
+        <v>0.9766773581504822</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0007668875623494387</v>
+        <v>0.000410029839258641</v>
       </c>
       <c r="B15">
-        <v>0.9997899532318115</v>
+        <v>0.9997718930244446</v>
       </c>
       <c r="C15">
-        <v>8.832603634800762E-05</v>
+        <v>0.1408723145723343</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.9741467833518982</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0002312483557034284</v>
+        <v>0.0004322770400904119</v>
       </c>
       <c r="B16">
-        <v>0.9999790191650391</v>
+        <v>0.9999087452888489</v>
       </c>
       <c r="C16">
-        <v>1.109886170524987E-06</v>
+        <v>0.1230722367763519</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9786608219146729</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0006202617078088224</v>
+        <v>0.0004415939329192042</v>
       </c>
       <c r="B17">
-        <v>0.9998109340667725</v>
+        <v>0.9998859763145447</v>
       </c>
       <c r="C17">
-        <v>0.0009095710120163858</v>
+        <v>0.1304000616073608</v>
       </c>
       <c r="D17">
-        <v>0.9997714757919312</v>
+        <v>0.9767457842826843</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0006307217408902943</v>
+        <v>0.0001019667179207318</v>
       </c>
       <c r="B18">
-        <v>0.9997899532318115</v>
+        <v>0.9999544024467468</v>
       </c>
       <c r="C18">
-        <v>2.869058732812846E-07</v>
+        <v>0.1218756511807442</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.979002833366394</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0006919919396750629</v>
+        <v>0.00071460020262748</v>
       </c>
       <c r="B19">
-        <v>0.9998739361763</v>
+        <v>0.9998631477355957</v>
       </c>
       <c r="C19">
-        <v>2.059427970380057E-07</v>
+        <v>0.1543091684579849</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9795499444007874</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0002790758444461972</v>
+        <v>0.0007278452394530177</v>
       </c>
       <c r="B20">
-        <v>0.9999369978904724</v>
+        <v>0.9997718930244446</v>
       </c>
       <c r="C20">
-        <v>2.553079241351952E-07</v>
+        <v>0.06904315948486328</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9848847389221191</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0001067164048436098</v>
+        <v>0.00012238509953022</v>
       </c>
       <c r="B21">
-        <v>0.9999579787254333</v>
+        <v>0.999977171421051</v>
       </c>
       <c r="C21">
-        <v>2.508282079816126E-07</v>
+        <v>0.117917388677597</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.979755163192749</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0001930282305693254</v>
+        <v>1.852984860306606E-05</v>
       </c>
       <c r="B22">
-        <v>0.9999369978904724</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>4.839784537580272E-07</v>
+        <v>0.1316826790571213</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.9768141508102417</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0002178981230827048</v>
+        <v>0.0003433595411479473</v>
       </c>
       <c r="B23">
-        <v>0.9999790191650391</v>
+        <v>0.9998859763145447</v>
       </c>
       <c r="C23">
-        <v>3.022280452569248E-07</v>
+        <v>0.1590884625911713</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9757882356643677</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0007087429403327405</v>
+        <v>0.0002469796454533935</v>
       </c>
       <c r="B24">
-        <v>0.9998319745063782</v>
+        <v>0.9999315738677979</v>
       </c>
       <c r="C24">
-        <v>9.351421795145143E-06</v>
+        <v>0.1491259783506393</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.9782504439353943</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0005628178478218615</v>
+        <v>0.0003464491746854037</v>
       </c>
       <c r="B25">
-        <v>0.9998739361763</v>
+        <v>0.9999544024467468</v>
       </c>
       <c r="C25">
-        <v>2.728043284605519E-07</v>
+        <v>0.1737604886293411</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9751726984977722</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>6.626170215895399E-05</v>
+        <v>0.0002032486372627318</v>
       </c>
       <c r="B26">
-        <v>0.9999790191650391</v>
+        <v>0.9999087452888489</v>
       </c>
       <c r="C26">
-        <v>3.142379227938363E-07</v>
+        <v>0.1370669007301331</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9789344072341919</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0007931875297799706</v>
+        <v>0.0005540908896364272</v>
       </c>
       <c r="B27">
-        <v>0.9998319745063782</v>
+        <v>0.9999315738677979</v>
       </c>
       <c r="C27">
-        <v>1.028002202474454E-06</v>
+        <v>0.1023864299058914</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9790711998939514</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0004571772296912968</v>
+        <v>2.155990478058811E-05</v>
       </c>
       <c r="B28">
-        <v>0.9998949766159058</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>6.663160689868164E-08</v>
+        <v>0.1366595029830933</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.9761302471160889</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>3.708153963088989E-05</v>
+        <v>1.161849286290817E-05</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>4.17140171293795E-08</v>
+        <v>0.2689805030822754</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.977703332901001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>6.491023668786511E-05</v>
+        <v>5.964841329841875E-05</v>
       </c>
       <c r="B30">
-        <v>0.9999790191650391</v>
+        <v>0.9999544024467468</v>
       </c>
       <c r="C30">
-        <v>1.487315604009609E-08</v>
+        <v>0.3837735056877136</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9662813544273376</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>6.896041304571554E-05</v>
+        <v>0.001003601588308811</v>
       </c>
       <c r="B31">
-        <v>0.9999579787254333</v>
+        <v>0.9998859763145447</v>
       </c>
       <c r="C31">
-        <v>1.465521481947007E-08</v>
+        <v>0.1363429874181747</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.978729248046875</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.000145114230690524</v>
+        <v>0.0004982061218470335</v>
       </c>
       <c r="B32">
-        <v>0.9999579787254333</v>
+        <v>0.9998631477355957</v>
       </c>
       <c r="C32">
-        <v>1.612266800066209E-07</v>
+        <v>0.1847708523273468</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.978455662727356</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0002322284271940589</v>
+        <v>0.0001415970909874886</v>
       </c>
       <c r="B33">
-        <v>0.9999579787254333</v>
+        <v>0.9999315738677979</v>
       </c>
       <c r="C33">
-        <v>1.423717037596361E-07</v>
+        <v>0.2155129015445709</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.9766089916229248</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.00137389381416142</v>
+        <v>0.0002008772571571171</v>
       </c>
       <c r="B34">
-        <v>0.9998949766159058</v>
+        <v>0.9999544024467468</v>
       </c>
       <c r="C34">
-        <v>1.084200196288521E-08</v>
+        <v>0.1971027106046677</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9778400659561157</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>8.393834286835045E-05</v>
+        <v>8.548436017008498E-05</v>
       </c>
       <c r="B35">
-        <v>0.9999790191650391</v>
+        <v>0.9999544024467468</v>
       </c>
       <c r="C35">
-        <v>1.825978017677699E-07</v>
+        <v>0.2450151294469833</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9768825769424438</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.001134931342676282</v>
+        <v>1.567982326378115E-05</v>
       </c>
       <c r="B36">
-        <v>0.9997899532318115</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>8.730823175540081E-09</v>
+        <v>0.2663508355617523</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9779084920883179</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0001145929272752255</v>
+        <v>0.0009884556056931615</v>
       </c>
       <c r="B37">
-        <v>0.9999579787254333</v>
+        <v>0.9998403191566467</v>
       </c>
       <c r="C37">
-        <v>3.73208441928341E-09</v>
+        <v>0.2534385025501251</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9711374044418335</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0001298790302826092</v>
+        <v>0.0002898959792219102</v>
       </c>
       <c r="B38">
-        <v>0.9999369978904724</v>
+        <v>0.9999544024467468</v>
       </c>
       <c r="C38">
-        <v>4.739968861855459E-09</v>
+        <v>0.1425328105688095</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9774297475814819</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0001544534752611071</v>
+        <v>0.0002081829588860273</v>
       </c>
       <c r="B39">
-        <v>0.9999579787254333</v>
+        <v>0.999977171421051</v>
       </c>
       <c r="C39">
-        <v>2.77862644004756E-09</v>
+        <v>0.1394363194704056</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9764721989631653</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.000539265398401767</v>
+        <v>6.473636858572718E-06</v>
       </c>
       <c r="B40">
-        <v>0.9998949766159058</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>9.262138278565146E-10</v>
+        <v>0.1379337906837463</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9771561622619629</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>2.763029624475166E-05</v>
+        <v>2.362749910389539E-06</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>8.717304100791523E-10</v>
+        <v>0.1382739394903183</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9775665402412415</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0009748298907652497</v>
+        <v>0.000162509226356633</v>
       </c>
       <c r="B42">
-        <v>0.9998319745063782</v>
+        <v>0.9999544024467468</v>
       </c>
       <c r="C42">
-        <v>1.13039263283099E-07</v>
+        <v>0.09110292792320251</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9850899577140808</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0005354515742510557</v>
+        <v>0.0008994809468276799</v>
       </c>
       <c r="B43">
-        <v>0.9999369978904724</v>
+        <v>0.9998631477355957</v>
       </c>
       <c r="C43">
-        <v>3.743826226809688E-08</v>
+        <v>0.1733606457710266</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9775665402412415</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1.379508375976002E-05</v>
+        <v>0.0003146666858810931</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9999315738677979</v>
       </c>
       <c r="C44">
-        <v>2.098792428739671E-08</v>
+        <v>0.1122124791145325</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.9785924553871155</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0006129592075012624</v>
+        <v>0.0001249395863851532</v>
       </c>
       <c r="B45">
-        <v>0.9999790191650391</v>
+        <v>0.9999315738677979</v>
       </c>
       <c r="C45">
-        <v>1.092359980248148E-08</v>
+        <v>0.1139589548110962</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.979755163192749</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0005852378089912236</v>
+        <v>1.379447166982573E-05</v>
       </c>
       <c r="B46">
-        <v>0.9998739361763</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>3.082272215237936E-08</v>
+        <v>0.1144815981388092</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9792763590812683</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.001047506695613265</v>
+        <v>0.0003350191691424698</v>
       </c>
       <c r="B47">
-        <v>0.9998529553413391</v>
+        <v>0.9999315738677979</v>
       </c>
       <c r="C47">
-        <v>2.883235517003868E-08</v>
+        <v>0.1558061093091965</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9782504439353943</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0002554163802415133</v>
+        <v>3.914447734132409E-05</v>
       </c>
       <c r="B48">
-        <v>0.9999579787254333</v>
+        <v>0.999977171421051</v>
       </c>
       <c r="C48">
-        <v>2.370014628993999E-09</v>
+        <v>0.2084523439407349</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9816702008247375</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>9.21614991966635E-05</v>
+        <v>0.0001600033865543082</v>
       </c>
       <c r="B49">
-        <v>0.9999369978904724</v>
+        <v>0.9999315738677979</v>
       </c>
       <c r="C49">
-        <v>1.253113279808815E-09</v>
+        <v>0.357175350189209</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.9692907333374023</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>3.58757347385108E-06</v>
+        <v>8.986104148789309E-06</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>9.262143829680269E-10</v>
+        <v>0.3566190600395203</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.974078357219696</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.000284298905171454</v>
+        <v>0.0001042160220094956</v>
       </c>
       <c r="B51">
-        <v>0.9999159574508667</v>
+        <v>0.999977171421051</v>
       </c>
       <c r="C51">
-        <v>3.358756117677331E-08</v>
+        <v>0.210339680314064</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9789344072341919</v>
       </c>
     </row>
   </sheetData>
